--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_6_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_6_sawtooth_0.1_.xlsx
@@ -587,26 +587,26 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2289357017305341</v>
+        <v>0.1024938676395517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2289357017305341</v>
+        <v>0.1024938676395517</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.985425259337084</v>
+        <v>7.356322494405919</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.740657248398273, 12.71150776707244]</t>
+          <t>[-2.0907697121177726, 16.80341470092961]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2003413563588803</v>
+        <v>0.1238041375240249</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2003413563588803</v>
+        <v>0.1238041375240249</v>
       </c>
       <c r="P2" t="n">
         <v>-0.5660527303765388</v>
@@ -623,18 +623,18 @@
         <v>0.7170237224875196</v>
       </c>
       <c r="T2" t="n">
-        <v>10.51372989776471</v>
+        <v>12.99735207162865</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.399820052662594, 14.627639742866823]</t>
+          <t>[8.163927993029365, 17.83077615022793]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.623391726050642e-06</v>
+        <v>2.276424630798246e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.623391726050642e-06</v>
+        <v>2.276424630798246e-06</v>
       </c>
       <c r="X2" t="n">
         <v>2.341441441441496</v>
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4021938241739266</v>
+        <v>0.3394182102805882</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4021938241739266</v>
+        <v>0.3394182102805882</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.287447172962072</v>
+        <v>4.559211885959154</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.430215959827822, 13.005110305751966]</t>
+          <t>[-3.8927641220595817, 13.01118789397789]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3271974563215772</v>
+        <v>0.283061689661686</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3271974563215772</v>
+        <v>0.283061689661686</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5660527303765388</v>
+        <v>-0.8553685703467711</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.691921697011428, 2.5598162362583503]</t>
+          <t>[-3.993816486545584, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.7170237224875196</v>
+        <v>0.585764376418179</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7170237224875196</v>
+        <v>0.585764376418179</v>
       </c>
       <c r="T3" t="n">
-        <v>10.72938353948198</v>
+        <v>10.96532045361617</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.207566686686864, 15.251200392277095]</t>
+          <t>[6.461713812082451, 15.46892709514988]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.912370184076195e-05</v>
+        <v>1.265891587709511e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.912370184076195e-05</v>
+        <v>1.265891587709511e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.341441441441496</v>
+        <v>3.538178178178264</v>
       </c>
       <c r="Y3" t="n">
-        <v>-10.58851851851877</v>
+        <v>-9.443813813814042</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.27140140140177</v>
+        <v>16.52017017017057</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4436799918231926</v>
+        <v>0.1222063748742529</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4436799918231926</v>
+        <v>0.1222063748742529</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.648555032682657</v>
+        <v>7.562089484533589</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.938801521561558, 14.235911586926871]</t>
+          <t>[-2.5298442254342035, 17.65402319450138]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3340057543636965</v>
+        <v>0.1382355046960047</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3340057543636965</v>
+        <v>0.1382355046960047</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.924579283280234</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.044158775133161, 1.1950002085726936]</t>
+          <t>[-4.119605982184815, 1.9057108589343503]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2204618632285755</v>
+        <v>0.4631155621005165</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2204618632285755</v>
+        <v>0.4631155621005165</v>
       </c>
       <c r="T4" t="n">
-        <v>14.64122337334179</v>
+        <v>16.61977802068705</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.41957156881433, 19.86287517786925]</t>
+          <t>[11.269435905265698, 21.970120136108402]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.038876483949736e-06</v>
+        <v>1.29852527619434e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.038876483949736e-06</v>
+        <v>1.29852527619434e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>7.960900900901091</v>
+        <v>4.578818818818931</v>
       </c>
       <c r="Y4" t="n">
-        <v>-4.94304304304316</v>
+        <v>-7.882852852853045</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.86484484484534</v>
+        <v>17.04049049049091</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.295680006648527</v>
+        <v>0.5404166100409801</v>
       </c>
       <c r="I5" t="n">
-        <v>0.295680006648527</v>
+        <v>0.5404166100409801</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.885164044558186</v>
+        <v>3.58044145114919</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.1406013688885057, 12.910929458004878]</t>
+          <t>[-5.118874331544025, 12.279757233842407]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.226592817630672</v>
+        <v>0.4115029485417354</v>
       </c>
       <c r="O5" t="n">
-        <v>0.226592817630672</v>
+        <v>0.4115029485417354</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.471737098979002</v>
+        <v>-1.647842392873925</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.559869216922122, 1.616395018964118]</t>
+          <t>[-4.786290309072737, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.3422458491756055</v>
+        <v>0.2959251409707098</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3422458491756055</v>
+        <v>0.2959251409707098</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92044362130927</v>
+        <v>12.33019534806092</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.337586488825341, 18.503300753793205]</t>
+          <t>[7.6034592400607774, 17.056931456061065]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.086671191392497e-07</v>
+        <v>3.931207748886223e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.086671191392497e-07</v>
+        <v>3.931207748886223e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>6.087747747747894</v>
+        <v>6.816196196196358</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.686116116116276</v>
+        <v>-6.165795795795944</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.86161161161206</v>
+        <v>19.79818818818866</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4587600821969517</v>
+        <v>0.2868532126094374</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4587600821969517</v>
+        <v>0.2868532126094374</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.506397565504791</v>
+        <v>5.334188815330251</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.990519106534196, 14.003314237543778]</t>
+          <t>[-3.423122751126491, 14.091500381786993]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3443222730687709</v>
+        <v>0.2262720995970435</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3443222730687709</v>
+        <v>0.2262720995970435</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.861790496788163, 0.3773684869176934]</t>
+          <t>[-5.7360010011489315, 0.5283158816847697]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.08342436254856533</v>
+        <v>0.1009943880298643</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08342436254856533</v>
+        <v>0.1009943880298643</v>
       </c>
       <c r="T6" t="n">
-        <v>15.33996655296643</v>
+        <v>15.07339404623596</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.447449875047642, 20.232483230885226]</t>
+          <t>[10.505021586865894, 19.64176650560602]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.062428862663722e-07</v>
+        <v>3.424464867229915e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.062428862663722e-07</v>
+        <v>3.424464867229915e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>11.34298298298325</v>
+        <v>10.77063063063089</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.560960960961001</v>
+        <v>-2.185345345345397</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.24692692692751</v>
+        <v>23.72660660660718</v>
       </c>
     </row>
     <row r="7">
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8979065319135714</v>
+        <v>0.1129517468352598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8979065319135714</v>
+        <v>0.1129517468352598</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.734826075973385</v>
+        <v>6.436634711339415</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-8.27512080796711, 11.744772959913877]</t>
+          <t>[-1.9060170151902627, 14.779286437869093]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7286688614755272</v>
+        <v>0.1272023747078437</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7286688614755272</v>
+        <v>0.1272023747078437</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.64157940842385</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.7800273246226626, 0.4968685077749626]</t>
+          <t>[-0.7358685494895019, 5.40265883770497]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09694032050913126</v>
+        <v>0.1327170011031324</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09694032050913126</v>
+        <v>0.1327170011031324</v>
       </c>
       <c r="T7" t="n">
-        <v>15.79782588476707</v>
+        <v>15.95416440012328</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.679378834216458, 20.91627293531768]</t>
+          <t>[11.54070771118774, 20.36762108905882]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.489059915371627e-07</v>
+        <v>3.913737556260344e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.489059915371627e-07</v>
+        <v>3.913737556260344e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>10.92672672672699</v>
+        <v>16.33805805805845</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.055265265265316</v>
+        <v>3.642242242242329</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.90871871871929</v>
+        <v>29.03387387387457</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2333432108816739</v>
+        <v>0.2650981014203051</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2333432108816739</v>
+        <v>0.2650981014203051</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.734747297895693</v>
+        <v>5.389216970854083</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.2495606206181353, 13.71905521640952]</t>
+          <t>[-3.0779836248379198, 13.856417566546085]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1549295183125188</v>
+        <v>0.2064293116035802</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1549295183125188</v>
+        <v>0.2064293116035802</v>
       </c>
       <c r="P8" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.04402632347373192, 6.182553710668201]</t>
+          <t>[-5.855501022006201, 0.42139481039142357]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04693598778265606</v>
+        <v>0.08804502831907168</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04693598778265606</v>
+        <v>0.08804502831907168</v>
       </c>
       <c r="T8" t="n">
-        <v>15.01294718911012</v>
+        <v>11.68588209124774</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.454331372200018, 19.571563006020213]</t>
+          <t>[7.232815745205169, 16.138948437290306]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.574015550178444e-08</v>
+        <v>3.53619205584188e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.574015550178444e-08</v>
+        <v>3.53619205584188e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>13.11207207207238</v>
+        <v>11.23891891891919</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4162562562562666</v>
+        <v>-1.743073073073115</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.8078878878885</v>
+        <v>24.22091091091149</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4117173767785879</v>
+        <v>0.4318948573350596</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4117173767785879</v>
+        <v>0.4318948573350596</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.41597768590458</v>
+        <v>5.10788568989147</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.486666854650227, 13.318622226459386]</t>
+          <t>[-4.911773712950101, 15.12754509273304]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3231099373444337</v>
+        <v>0.3100200948559244</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3231099373444337</v>
+        <v>0.3100200948559244</v>
       </c>
       <c r="P9" t="n">
-        <v>2.509500438002658</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5975001042863459, 5.616500980291662]</t>
+          <t>[-1.3836844520315408, 4.8932113803660835]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1107679696613706</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1107679696613706</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="T9" t="n">
-        <v>11.60104197009115</v>
+        <v>11.7619110836837</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.936213576596764, 16.265870363585535]</t>
+          <t>[6.247745298162787, 17.276076869204623]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.930185380728872e-06</v>
+        <v>9.169287477694965e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>8.930185380728872e-06</v>
+        <v>9.169287477694965e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>14.61261261261283</v>
+        <v>17.04504504504523</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5815615615616</v>
+        <v>5.231881881881941</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.64366366366406</v>
+        <v>28.85820820820852</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1090310746975174</v>
+        <v>0.2225625503958332</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1090310746975174</v>
+        <v>0.2225625503958332</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.077315694959232</v>
+        <v>6.473678493153993</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.27983391796813, 15.434465307886594]</t>
+          <t>[-3.702474628818327, 16.649831615126313]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09496608952978147</v>
+        <v>0.2066534438552157</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09496608952978147</v>
+        <v>0.2066534438552157</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.880579450138389</v>
+        <v>2.459184639746965</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.654211338651545, -1.1069475616252324]</t>
+          <t>[-0.6729738016698867, 5.591343081163816]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.002059904887143027</v>
+        <v>0.1208011190766549</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002059904887143027</v>
+        <v>0.1208011190766549</v>
       </c>
       <c r="T10" t="n">
-        <v>12.54964024598628</v>
+        <v>16.7593728941777</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.913429602788703, 17.18585088918386]</t>
+          <t>[11.525275543040664, 21.99347024531474]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.016266498872099e-06</v>
+        <v>6.711899236400143e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>2.016266498872099e-06</v>
+        <v>6.711899236400143e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>11.15429429429446</v>
+        <v>14.39359359359375</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.286366366366431</v>
+        <v>2.604104104104133</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.02222222222249</v>
+        <v>26.18308308308337</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4101389171637602</v>
+        <v>0.242621291744411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4101389171637602</v>
+        <v>0.242621291744411</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.309855227580897</v>
+        <v>6.056222533806076</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.573755568390718, 12.193466023552512]</t>
+          <t>[-3.7296325881540175, 15.842077655766168]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2767163490537519</v>
+        <v>0.2190384885387364</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2767163490537519</v>
+        <v>0.2190384885387364</v>
       </c>
       <c r="P11" t="n">
-        <v>3.025237370123504</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.09434212172942313, 6.144816861976432]</t>
+          <t>[-0.40881586082750054, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.05703177616540023</v>
+        <v>0.08728231287384092</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05703177616540023</v>
+        <v>0.08728231287384092</v>
       </c>
       <c r="T11" t="n">
-        <v>11.3588295772761</v>
+        <v>12.66194273428018</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.835968170151066, 15.881690984401128]</t>
+          <t>[7.599121043160169, 17.724764425400203]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.574844041569051e-06</v>
+        <v>8.126472738956281e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.574844041569051e-06</v>
+        <v>8.126472738956281e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>12.61555555555574</v>
+        <v>13.54134134134149</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5357957957958046</v>
+        <v>1.893893893893912</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.69531531531568</v>
+        <v>25.18878878878906</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1889201163503011</v>
+        <v>0.09764432995342087</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1889201163503011</v>
+        <v>0.09764432995342087</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.224982883609883</v>
+        <v>8.176735705032497</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.8512481955945468, 14.301213962814312]</t>
+          <t>[-1.8278621438235625, 18.181333553888557]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.127565504678899</v>
+        <v>0.1067061570022183</v>
       </c>
       <c r="O12" t="n">
-        <v>0.127565504678899</v>
+        <v>0.1067061570022183</v>
       </c>
       <c r="P12" t="n">
-        <v>3.138447916198812</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 5.817764173314431]</t>
+          <t>[-0.798763297309117, 5.440395686396739]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02271235547365502</v>
+        <v>0.1410133093895243</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02271235547365502</v>
+        <v>0.1410133093895243</v>
       </c>
       <c r="T12" t="n">
-        <v>12.18568233323354</v>
+        <v>13.72523650309999</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.458673712450931, 16.912690954016156]</t>
+          <t>[8.473323603566989, 18.977149402632996]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.83950898311214e-06</v>
+        <v>3.806156571029007e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>4.83950898311214e-06</v>
+        <v>3.806156571029007e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>12.17717717717736</v>
+        <v>14.91441441441458</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.802222222222255</v>
+        <v>3.172272272272306</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.55213213213247</v>
+        <v>26.65655655655685</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2538825726017229</v>
+        <v>0.5980459321198123</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2538825726017229</v>
+        <v>0.5980459321198123</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.527329683562836</v>
+        <v>3.702184424182152</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.5276461871741853, 13.582305554299857]</t>
+          <t>[-6.0924594472392615, 13.496828295603567]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1737697942432763</v>
+        <v>0.4504540743480339</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1737697942432763</v>
+        <v>0.4504540743480339</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.044105794469389</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-6.063053689810932, -0.02515789912784605]</t>
+          <t>[-0.23900004171453926, 5.987579992427394]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0481995086708773</v>
+        <v>0.06950367624695519</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0481995086708773</v>
+        <v>0.06950367624695519</v>
       </c>
       <c r="T13" t="n">
-        <v>14.04897968395265</v>
+        <v>13.61422047033866</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.401220721268404, 18.696738646636895]</t>
+          <t>[8.414210261318177, 18.81423067935915]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.310079381118157e-07</v>
+        <v>3.685949800047439e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>2.310079381118157e-07</v>
+        <v>3.685949800047439e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>11.78750750750768</v>
+        <v>12.83113113113127</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.09741741741741983</v>
+        <v>1.112662662662673</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.47759759759795</v>
+        <v>24.54959959959987</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4571136365875332</v>
+        <v>0.09740646241131934</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4571136365875332</v>
+        <v>0.09740646241131934</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.303930752016484</v>
+        <v>8.311618122268477</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.104102603286346, 12.711964107319314]</t>
+          <t>[-1.5192956520088678, 18.142531896545822]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3080571276983322</v>
+        <v>0.09549705026370336</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3080571276983322</v>
+        <v>0.09549705026370336</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.918316298830157</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-6.050474740247008, 0.2138421425866932]</t>
+          <t>[1.0377633390236558, 4.585027116049968]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.06706732824902972</v>
+        <v>0.002573447505408</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06706732824902972</v>
+        <v>0.002573447505408</v>
       </c>
       <c r="T14" t="n">
-        <v>10.62868619116826</v>
+        <v>14.40559631746641</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.8119801475835295, 15.445392234752987]</t>
+          <t>[9.037585296386851, 19.773607338545972]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.69782527797269e-05</v>
+        <v>2.362561577040623e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.69782527797269e-05</v>
+        <v>2.362561577040623e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>11.30042042042059</v>
+        <v>13.06786786786801</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.8280480480480623</v>
+        <v>6.39189189189196</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.42888888888923</v>
+        <v>19.74384384384405</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06758335579371422</v>
+        <v>0.7649006907844372</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06758335579371422</v>
+        <v>0.7649006907844372</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>7.128427603350556</v>
+        <v>2.324430822452618</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.9624681271941302, 15.219323333895241]</t>
+          <t>[-6.157026768149844, 10.80588841305508]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.08274379039109636</v>
+        <v>0.5836892305132064</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08274379039109636</v>
+        <v>0.5836892305132064</v>
       </c>
       <c r="P15" t="n">
-        <v>2.635289933641888</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 4.50955341866643]</t>
+          <t>[-0.4025263860455386, 5.874369446352086]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.00689683699307686</v>
+        <v>0.08593068595703945</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00689683699307686</v>
+        <v>0.08593068595703945</v>
       </c>
       <c r="T15" t="n">
-        <v>14.14885869580405</v>
+        <v>14.48916407212314</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[9.918867218933677, 18.378850172674433]</t>
+          <t>[9.959948369282895, 19.018379774963385]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.504450957729887e-08</v>
+        <v>6.84828820318728e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>2.504450957729887e-08</v>
+        <v>6.84828820318728e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>14.12552552552574</v>
+        <v>13.3519519519521</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.867927927928031</v>
+        <v>1.538788788788807</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.38312312312345</v>
+        <v>25.16511511511539</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2325559317620035</v>
+        <v>0.3547056328568022</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2325559317620035</v>
+        <v>0.3547056328568022</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.298517825735712</v>
+        <v>4.905241516032554</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-2.9067277205342306, 15.503763372005654]</t>
+          <t>[-3.715470908417659, 13.525953940482767]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.174982721765353</v>
+        <v>0.2578373560180123</v>
       </c>
       <c r="O16" t="n">
-        <v>0.174982721765353</v>
+        <v>0.2578373560180123</v>
       </c>
       <c r="P16" t="n">
-        <v>1.276763380738195</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.7547634641672714, 4.308290225643661]</t>
+          <t>[-0.2327105669325773, 6.006448416773278]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.4007809444396981</v>
+        <v>0.06887399606994138</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4007809444396981</v>
+        <v>0.06887399606994138</v>
       </c>
       <c r="T16" t="n">
-        <v>15.65858613242152</v>
+        <v>14.02723733893707</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[10.467167967207274, 20.850004297635763]</t>
+          <t>[9.201045464857089, 18.85342921301705]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.415853386228406e-07</v>
+        <v>5.14151435648813e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>2.415853386228406e-07</v>
+        <v>5.14151435648813e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>19.38606606606636</v>
+        <v>12.78378378378392</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.647267267267381</v>
+        <v>1.041641641641654</v>
       </c>
       <c r="Z16" t="n">
-        <v>31.12486486486533</v>
+        <v>24.5259259259262</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.33000000000036</v>
+        <v>23.65000000000026</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006331755498023561</v>
+        <v>0.2391394895957355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006331755498023561</v>
+        <v>0.2391394895957355</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>10.95483669497379</v>
+        <v>4.55562052082692</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[3.13059470605387, 18.779078683893715]</t>
+          <t>[-2.363438256862022, 11.474679298515861]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.007117911705524671</v>
+        <v>0.1914924018374533</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007117911705524671</v>
+        <v>0.1914924018374533</v>
       </c>
       <c r="P17" t="n">
-        <v>2.937184723176043</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 3.905763839598121]</t>
+          <t>[-0.08805264694746207, 6.037895790683086]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.160356147307141e-07</v>
+        <v>0.05666527743094107</v>
       </c>
       <c r="S17" t="n">
-        <v>2.160356147307141e-07</v>
+        <v>0.05666527743094107</v>
       </c>
       <c r="T17" t="n">
-        <v>13.87740647510241</v>
+        <v>13.06538525085301</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[9.275393052142558, 18.479419898062268]</t>
+          <t>[9.26904931626278, 16.861721185443244]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.428147716226903e-07</v>
+        <v>1.286747530748755e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>2.428147716226903e-07</v>
+        <v>1.286747530748755e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>12.95651651651671</v>
+        <v>12.45235235235249</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.205945945946082</v>
+        <v>0.9232732732732831</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.70708708708733</v>
+        <v>23.98143143143169</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_6_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_6_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1024938676395517</v>
+        <v>0.4852856847220993</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1024938676395517</v>
+        <v>0.4852856847220993</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.356322494405919</v>
+        <v>3.95456223114637</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.0907697121177726, 16.80341470092961]</t>
+          <t>[-5.0154408895946885, 12.924565351887427]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1238041375240249</v>
+        <v>0.3792903305388879</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1238041375240249</v>
+        <v>0.3792903305388879</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5660527303765388</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.691921697011428, 2.5598162362583503]</t>
+          <t>[-4.056711234365198, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.7170237224875196</v>
+        <v>0.5586092826323963</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7170237224875196</v>
+        <v>0.5586092826323963</v>
       </c>
       <c r="T2" t="n">
-        <v>12.99735207162865</v>
+        <v>12.70248489787202</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.163927993029365, 17.83077615022793]</t>
+          <t>[7.93554917414891, 17.469420621595127]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.276424630798246e-06</v>
+        <v>2.686551441311025e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.276424630798246e-06</v>
+        <v>2.686551441311025e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>2.341441441441496</v>
+        <v>3.736956956957041</v>
       </c>
       <c r="Y2" t="n">
-        <v>-10.58851851851877</v>
+        <v>-9.03524524524544</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.27140140140177</v>
+        <v>16.50915915915952</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3394182102805882</v>
+        <v>0.2154063334809277</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3394182102805882</v>
+        <v>0.2154063334809277</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.559211885959154</v>
+        <v>6.686734897482442</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.8927641220595817, 13.01118789397789]</t>
+          <t>[-3.938686931237399, 17.312156726202282]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.283061689661686</v>
+        <v>0.2114946454862963</v>
       </c>
       <c r="O3" t="n">
-        <v>0.283061689661686</v>
+        <v>0.2114946454862963</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8553685703467711</v>
+        <v>-0.792473822527155</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.993816486545584, 2.283079345852042]</t>
+          <t>[-3.9183427891620446, 2.3333951441077345]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.585764376418179</v>
+        <v>0.6121146648098725</v>
       </c>
       <c r="S3" t="n">
-        <v>0.585764376418179</v>
+        <v>0.6121146648098725</v>
       </c>
       <c r="T3" t="n">
-        <v>10.96532045361617</v>
+        <v>18.02811796105184</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.461713812082451, 15.46892709514988]</t>
+          <t>[12.582487285846193, 23.47374863625749]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.265891587709511e-05</v>
+        <v>3.173109730525425e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.265891587709511e-05</v>
+        <v>3.173109730525425e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>3.538178178178264</v>
+        <v>3.225045045045118</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.443813813814042</v>
+        <v>-9.495965965966171</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.52017017017057</v>
+        <v>15.94605605605641</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1222063748742529</v>
+        <v>0.4307616178222036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1222063748742529</v>
+        <v>0.4307616178222036</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.562089484533589</v>
+        <v>4.136975696586596</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.5298442254342035, 17.65402319450138]</t>
+          <t>[-4.287031151481937, 12.560982544655129]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1382355046960047</v>
+        <v>0.3278965699194991</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1382355046960047</v>
+        <v>0.3278965699194991</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.106947561625232</v>
+        <v>-1.522052897234694</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.119605982184815, 1.9057108589343503]</t>
+          <t>[-4.647921863869583, 1.603816069400195]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4631155621005165</v>
+        <v>0.331979032169047</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4631155621005165</v>
+        <v>0.331979032169047</v>
       </c>
       <c r="T4" t="n">
-        <v>16.61977802068705</v>
+        <v>10.88301285678255</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.269435905265698, 21.970120136108402]</t>
+          <t>[6.238760002726803, 15.527265710838304]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.29852527619434e-07</v>
+        <v>2.32467909411227e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29852527619434e-07</v>
+        <v>2.32467909411227e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>4.578818818818931</v>
+        <v>6.194134134134266</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.882852852853045</v>
+        <v>-6.52687687687702</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.04049049049091</v>
+        <v>18.91514514514555</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5404166100409801</v>
+        <v>0.328979533537084</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5404166100409801</v>
+        <v>0.328979533537084</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.58044145114919</v>
+        <v>4.524721436978087</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.118874331544025, 12.279757233842407]</t>
+          <t>[-3.6975613694022993, 12.747004243358473]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4115029485417354</v>
+        <v>0.273594841009543</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4115029485417354</v>
+        <v>0.273594841009543</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.647842392873925</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.786290309072737, 1.490605523324887]</t>
+          <t>[-4.308290225643659, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2959251409707098</v>
+        <v>0.4567123270547255</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2959251409707098</v>
+        <v>0.4567123270547255</v>
       </c>
       <c r="T5" t="n">
-        <v>12.33019534806092</v>
+        <v>11.94000646759222</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.6034592400607774, 17.056931456061065]</t>
+          <t>[7.525153973852117, 16.354858961332322]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.931207748886223e-06</v>
+        <v>2.049034870887922e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.931207748886223e-06</v>
+        <v>2.049034870887922e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>6.816196196196358</v>
+        <v>4.76078078078088</v>
       </c>
       <c r="Y5" t="n">
-        <v>-6.165795795795944</v>
+        <v>-8.011421421421597</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.79818818818866</v>
+        <v>17.53298298298336</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2868532126094374</v>
+        <v>0.119295730657121</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2868532126094374</v>
+        <v>0.119295730657121</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.334188815330251</v>
+        <v>5.510864635697752</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.423122751126491, 14.091500381786993]</t>
+          <t>[-0.9190124202281567, 11.94074169162366]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2262720995970435</v>
+        <v>0.09116665171207616</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2262720995970435</v>
+        <v>0.09116665171207616</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.603842559732081</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.7360010011489315, 0.5283158816847697]</t>
+          <t>[-4.629053439523699, -1.3836844520315408]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1009943880298643</v>
+        <v>0.000531793446234774</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1009943880298643</v>
+        <v>0.000531793446234774</v>
       </c>
       <c r="T6" t="n">
-        <v>15.07339404623596</v>
+        <v>11.06073603207946</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.505021586865894, 19.64176650560602]</t>
+          <t>[7.4645055436336705, 14.656966520525252]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.424464867229915e-08</v>
+        <v>1.60420601913458e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.424464867229915e-08</v>
+        <v>1.60420601913458e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>10.77063063063089</v>
+        <v>12.23469469469496</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.185345345345397</v>
+        <v>5.631031031031155</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.72660660660718</v>
+        <v>18.83835835835877</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1129517468352598</v>
+        <v>0.1273265963670464</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1129517468352598</v>
+        <v>0.1273265963670464</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.436634711339415</v>
+        <v>7.597559959908756</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.9060170151902627, 14.779286437869093]</t>
+          <t>[-1.9410545089726732, 17.136174428790184]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1272023747078437</v>
+        <v>0.1156565389964506</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1272023747078437</v>
+        <v>0.1156565389964506</v>
       </c>
       <c r="P7" t="n">
-        <v>2.333395144107734</v>
+        <v>-1.98747403109985</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.7358685494895019, 5.40265883770497]</t>
+          <t>[-4.094448083056968, 0.11950002085726918]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1327170011031324</v>
+        <v>0.06386969549411625</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1327170011031324</v>
+        <v>0.06386969549411625</v>
       </c>
       <c r="T7" t="n">
-        <v>15.95416440012328</v>
+        <v>14.08677286633963</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.54070771118774, 20.36762108905882]</t>
+          <t>[8.832886408483617, 19.340659324195638]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.913737556260344e-09</v>
+        <v>2.40130703166308e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.913737556260344e-09</v>
+        <v>2.40130703166308e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>16.33805805805845</v>
+        <v>8.088208208208385</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.642242242242329</v>
+        <v>-0.4863163163163264</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.03387387387457</v>
+        <v>16.6627327327331</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2650981014203051</v>
+        <v>0.2474213969194473</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2650981014203051</v>
+        <v>0.2474213969194473</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.389216970854083</v>
+        <v>6.99727957968799</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.0779836248379198, 13.856417566546085]</t>
+          <t>[-3.2840598106661547, 17.278618970042135]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2064293116035802</v>
+        <v>0.1772486246544636</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2064293116035802</v>
+        <v>0.1772486246544636</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.717053105807389</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.855501022006201, 0.42139481039142357]</t>
+          <t>[-5.861790496788163, 0.17610529389492413]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08804502831907168</v>
+        <v>0.06430910303940363</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08804502831907168</v>
+        <v>0.06430910303940363</v>
       </c>
       <c r="T8" t="n">
-        <v>11.68588209124774</v>
+        <v>12.87853098031981</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.232815745205169, 16.138948437290306]</t>
+          <t>[7.201213895679502, 18.555848064960124]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.53619205584188e-06</v>
+        <v>3.806796893779385e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>3.53619205584188e-06</v>
+        <v>3.806796893779385e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>11.23891891891919</v>
+        <v>11.56920920920946</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.743073073073115</v>
+        <v>-0.7166766766766948</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.22091091091149</v>
+        <v>23.85509509509562</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4318948573350596</v>
+        <v>0.1355836000657544</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4318948573350596</v>
+        <v>0.1355836000657544</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.10788568989147</v>
+        <v>6.443038430270301</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.911773712950101, 15.12754509273304]</t>
+          <t>[-2.287188261138544, 15.173265121679146]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3100200948559244</v>
+        <v>0.1441364677306229</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3100200948559244</v>
+        <v>0.1441364677306229</v>
       </c>
       <c r="P9" t="n">
-        <v>1.754763464167271</v>
+        <v>2.446605690183043</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.3836844520315408, 4.8932113803660835]</t>
+          <t>[-0.6666843268879239, 5.559895707254009]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2660838381905248</v>
+        <v>0.1204707049776261</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2660838381905248</v>
+        <v>0.1204707049776261</v>
       </c>
       <c r="T9" t="n">
-        <v>11.7619110836837</v>
+        <v>13.10074657556243</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.247745298162787, 17.276076869204623]</t>
+          <t>[8.603936356776215, 17.597556794348648]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.169287477694965e-05</v>
+        <v>4.904728143628745e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.169287477694965e-05</v>
+        <v>4.904728143628745e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>17.04504504504523</v>
+        <v>14.3554554554556</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.231881881881941</v>
+        <v>2.70635635635638</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.85820820820852</v>
+        <v>26.00455455455482</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2225625503958332</v>
+        <v>0.1442770481186363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2225625503958332</v>
+        <v>0.1442770481186363</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.473678493153993</v>
+        <v>5.145705690132672</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.702474628818327, 16.649831615126313]</t>
+          <t>[-1.9843597543796498, 12.275771134644994]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2066534438552157</v>
+        <v>0.1530070738811653</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2066534438552157</v>
+        <v>0.1530070738811653</v>
       </c>
       <c r="P10" t="n">
-        <v>2.459184639746965</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6729738016698867, 5.591343081163816]</t>
+          <t>[-0.7610264486173488, 5.302027241193585]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1208011190766549</v>
+        <v>0.1384191257629226</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1208011190766549</v>
+        <v>0.1384191257629226</v>
       </c>
       <c r="T10" t="n">
-        <v>16.7593728941777</v>
+        <v>10.73390760029725</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[11.525275543040664, 21.99347024531474]</t>
+          <t>[7.097752300265183, 14.370062900329307]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.711899236400143e-08</v>
+        <v>3.759964062322041e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>6.711899236400143e-08</v>
+        <v>3.759964062322041e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.39359359359375</v>
+        <v>15.01439439439455</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.604104104104133</v>
+        <v>3.671231231231266</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.18308308308337</v>
+        <v>26.35755755755783</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.242621291744411</v>
+        <v>0.3800728229917899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.242621291744411</v>
+        <v>0.3800728229917899</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.056222533806076</v>
+        <v>5.932249910631696</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.7296325881540175, 15.842077655766168]</t>
+          <t>[-5.487620684298347, 17.35212050556174]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2190384885387364</v>
+        <v>0.3010281364771554</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2190384885387364</v>
+        <v>0.3010281364771554</v>
       </c>
       <c r="P11" t="n">
-        <v>2.685605731897581</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.40881586082750054, 5.7800273246226626]</t>
+          <t>[-1.0126054398958075, 5.075606149042969]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.08728231287384092</v>
+        <v>0.1856462589458852</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08728231287384092</v>
+        <v>0.1856462589458852</v>
       </c>
       <c r="T11" t="n">
-        <v>12.66194273428018</v>
+        <v>15.76245058131967</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.599121043160169, 17.724764425400203]</t>
+          <t>[9.79481442553331, 21.730086737106028]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.126472738956281e-06</v>
+        <v>3.149075433750426e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>8.126472738956281e-06</v>
+        <v>3.149075433750426e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>13.54134134134149</v>
+        <v>15.90866866866883</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.893893893893912</v>
+        <v>4.518438438438483</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.18878878878906</v>
+        <v>27.29889889889917</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09764432995342087</v>
+        <v>0.3801170447470787</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09764432995342087</v>
+        <v>0.3801170447470787</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.176735705032497</v>
+        <v>5.50486828572964</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.8278621438235625, 18.181333553888557]</t>
+          <t>[-4.386729928670117, 15.396466500129396]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1067061570022183</v>
+        <v>0.2682818221909138</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1067061570022183</v>
+        <v>0.2682818221909138</v>
       </c>
       <c r="P12" t="n">
-        <v>2.320816194543811</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.798763297309117, 5.440395686396739]</t>
+          <t>[0.0, 6.276895832397625]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1410133093895243</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1410133093895243</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="T12" t="n">
-        <v>13.72523650309999</v>
+        <v>16.7998818806239</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.473323603566989, 18.977149402632996]</t>
+          <t>[11.174044769969354, 22.425718991278437]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.806156571029007e-06</v>
+        <v>2.971208645785595e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.806156571029007e-06</v>
+        <v>2.971208645785595e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>14.91441441441458</v>
+        <v>11.76676676676688</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.172272272272306</v>
+        <v>0.02353353353353071</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.65655655655685</v>
+        <v>23.51000000000024</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5980459321198123</v>
+        <v>0.05083790585278403</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5980459321198123</v>
+        <v>0.05083790585278403</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.702184424182152</v>
+        <v>8.66480251092192</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-6.0924594472392615, 13.496828295603567]</t>
+          <t>[-0.636618473224182, 17.96622349506802]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4504540743480339</v>
+        <v>0.06711537843891935</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4504540743480339</v>
+        <v>0.06711537843891935</v>
       </c>
       <c r="P13" t="n">
-        <v>2.874289975356427</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.23900004171453926, 5.987579992427394]</t>
+          <t>[1.1509738850989635, 4.320869175207584]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.06950367624695519</v>
+        <v>0.001136591069927029</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06950367624695519</v>
+        <v>0.001136591069927029</v>
       </c>
       <c r="T13" t="n">
-        <v>13.61422047033866</v>
+        <v>16.97498153208456</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.414210261318177, 18.81423067935915]</t>
+          <t>[12.052754368010598, 21.89720869615853]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.685949800047439e-06</v>
+        <v>1.225723567088721e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>3.685949800047439e-06</v>
+        <v>1.225723567088721e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>12.83113113113127</v>
+        <v>13.27291291291305</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.112662662662673</v>
+        <v>7.342462462462536</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.54959959959987</v>
+        <v>19.20336336336356</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09740646241131934</v>
+        <v>0.1625608737929684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09740646241131934</v>
+        <v>0.1625608737929684</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>8.311618122268477</v>
+        <v>5.895240038564671</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.5192956520088678, 18.142531896545822]</t>
+          <t>[-2.3519460718529004, 14.142426148982242]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.09549705026370336</v>
+        <v>0.1568680094101664</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09549705026370336</v>
+        <v>0.1568680094101664</v>
       </c>
       <c r="P14" t="n">
-        <v>2.811395227536812</v>
+        <v>2.823974177100736</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.0377633390236558, 4.585027116049968]</t>
+          <t>[-0.1509473947670772, 5.798895748968548]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.002573447505408</v>
+        <v>0.06226772863951346</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002573447505408</v>
+        <v>0.06226772863951346</v>
       </c>
       <c r="T14" t="n">
-        <v>14.40559631746641</v>
+        <v>17.03101757509533</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.037585296386851, 19.773607338545972]</t>
+          <t>[12.680755941737765, 21.381279208452888]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.362561577040623e-06</v>
+        <v>5.068785391415531e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>2.362561577040623e-06</v>
+        <v>5.068785391415531e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>13.06786786786801</v>
+        <v>12.94344344344357</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.39189189189196</v>
+        <v>1.812082082082094</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.74384384384405</v>
+        <v>24.07480480480505</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7649006907844372</v>
+        <v>0.2719357762116508</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7649006907844372</v>
+        <v>0.2719357762116508</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>2.324430822452618</v>
+        <v>5.517308223439917</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-6.157026768149844, 10.80588841305508]</t>
+          <t>[-3.228519851216431, 14.263136298096265]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.5836892305132064</v>
+        <v>0.2104016221811595</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5836892305132064</v>
+        <v>0.2104016221811595</v>
       </c>
       <c r="P15" t="n">
-        <v>2.735921530153274</v>
+        <v>2.849132076228582</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.4025263860455386, 5.874369446352086]</t>
+          <t>[-0.2641579408423853, 5.962422093299549]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.08593068595703945</v>
+        <v>0.07189065290937569</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08593068595703945</v>
+        <v>0.07189065290937569</v>
       </c>
       <c r="T15" t="n">
-        <v>14.48916407212314</v>
+        <v>12.44111379122401</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[9.959948369282895, 19.018379774963385]</t>
+          <t>[7.608391226684628, 17.273836355763393]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.84828820318728e-08</v>
+        <v>4.956530918809321e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>6.84828820318728e-08</v>
+        <v>4.956530918809321e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>13.3519519519521</v>
+        <v>12.84930930930943</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.538788788788807</v>
+        <v>1.200210210210214</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.16511511511539</v>
+        <v>24.49840840840866</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3547056328568022</v>
+        <v>0.001347611575145402</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3547056328568022</v>
+        <v>0.001347611575145402</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.905241516032554</v>
+        <v>9.345367580664893</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.715470908417659, 13.525953940482767]</t>
+          <t>[2.95242145569231, 15.738313705637477]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2578373560180123</v>
+        <v>0.005106746979182786</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2578373560180123</v>
+        <v>0.005106746979182786</v>
       </c>
       <c r="P16" t="n">
-        <v>2.88686892492035</v>
+        <v>-2.792526803190927</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.2327105669325773, 6.006448416773278]</t>
+          <t>[-3.53468482746239, -2.0503687789194642]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.06887399606994138</v>
+        <v>1.425349394068576e-09</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06887399606994138</v>
+        <v>1.425349394068576e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>14.02723733893707</v>
+        <v>10.61690982482158</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.201045464857089, 18.85342921301705]</t>
+          <t>[7.195256802709764, 14.038562846933402]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.14151435648813e-07</v>
+        <v>1.329721075471468e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>5.14151435648813e-07</v>
+        <v>1.329721075471468e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>12.78378378378392</v>
+        <v>10.44888888888899</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.041641641641654</v>
+        <v>7.671931931932007</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.5259259259262</v>
+        <v>13.22584584584598</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.65000000000026</v>
+        <v>23.51000000000024</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2391394895957355</v>
+        <v>0.07060849762336407</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2391394895957355</v>
+        <v>0.07060849762336407</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>4.55562052082692</v>
+        <v>6.330370985684272</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.363438256862022, 11.474679298515861]</t>
+          <t>[-0.4513998107325907, 13.112141782101135]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1914924018374533</v>
+        <v>0.06658510939299367</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1914924018374533</v>
+        <v>0.06658510939299367</v>
       </c>
       <c r="P17" t="n">
-        <v>2.974921571867812</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.08805264694746207, 6.037895790683086]</t>
+          <t>[-4.42779024650093, -1.5094739476707706]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.05666527743094107</v>
+        <v>0.0001719055544833203</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05666527743094107</v>
+        <v>0.0001719055544833203</v>
       </c>
       <c r="T17" t="n">
-        <v>13.06538525085301</v>
+        <v>9.564858647976145</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[9.26904931626278, 16.861721185443244]</t>
+          <t>[5.728434301679131, 13.40128299427316]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.286747530748755e-08</v>
+        <v>8.563198682365325e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.286747530748755e-08</v>
+        <v>8.563198682365325e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>12.45235235235249</v>
+        <v>11.10782782782794</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9232732732732831</v>
+        <v>5.648048048048104</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.98143143143169</v>
+        <v>16.56760760760778</v>
       </c>
     </row>
   </sheetData>
